--- a/4sem/01-Python-brushup_and_Docker_1/codefiles/northwind/data/northwind_data.xlsx
+++ b/4sem/01-Python-brushup_and_Docker_1/codefiles/northwind/data/northwind_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuehe\Documents\GitHub\study\4sem\01-Python-brushup_and_Docker_1\codefiles\northwind\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16651D45-8635-4061-9CA4-FADF11BA689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13AE9D9-7144-48A9-9D19-E6AF97D69842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{416B235D-48B9-455F-95E7-1E3D18901F3C}"/>
+    <workbookView xWindow="14130" yWindow="2670" windowWidth="7500" windowHeight="6000" firstSheet="1" activeTab="3" xr2:uid="{416B235D-48B9-455F-95E7-1E3D18901F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeesSale" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Buchanan</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Meat/Poultry</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Produce</t>
   </si>
   <si>
-    <t>Products</t>
-  </si>
-  <si>
     <t>Thringer Rostbratwurst</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>Pavlova</t>
   </si>
   <si>
-    <t>Customers</t>
-  </si>
-  <si>
     <t>Save-a-lot Markets</t>
   </si>
   <si>
@@ -133,7 +124,16 @@
     <t>Folk och f HB</t>
   </si>
   <si>
-    <t>Employees</t>
+    <t>EmployeesName</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
   </si>
 </sst>
 </file>
@@ -487,18 +487,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A188A3B8-51A3-4EEE-B9FA-DD12AB15426A}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -585,15 +585,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C25819-99DD-4470-9CE0-E13DEFE2D42B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -601,7 +602,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>8309219</v>
@@ -609,7 +610,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>4446430</v>
@@ -617,7 +618,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3535567</v>
@@ -625,7 +626,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>3502061</v>
@@ -633,7 +634,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>2929428</v>
@@ -641,7 +642,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2513305</v>
@@ -649,7 +650,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>2503518</v>
@@ -657,7 +658,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>1554886</v>
@@ -673,14 +674,17 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -688,7 +692,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>7116380</v>
@@ -696,7 +700,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1726340</v>
@@ -704,7 +708,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1499842</v>
@@ -712,7 +716,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>1452057</v>
@@ -720,7 +724,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>1360644</v>
@@ -735,15 +739,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A6778A-E980-4848-A37D-F50385676502}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -751,7 +758,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>3091877</v>
@@ -759,7 +766,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>2812823</v>
@@ -767,7 +774,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>2540700</v>
@@ -775,7 +782,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2284005</v>
@@ -783,7 +790,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>977205</v>
